--- a/Project Documents/Timeline.xlsx
+++ b/Project Documents/Timeline.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:BG259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1443,6 +1443,9 @@
       </c>
       <c r="E7" s="2">
         <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>42372</v>
       </c>
       <c r="I7" s="6" t="b">
         <f t="shared" ref="I7:X21" si="4">IF(AND(I$3&gt;=$F7, I$3&lt;=$F7+$G7-1), "ACTUAL", IF(AND(I$3&gt;=$D7, I$3&lt;=$D7+$E7-1), "PLANNED",  FALSE))</f>

--- a/Project Documents/Timeline.xlsx
+++ b/Project Documents/Timeline.xlsx
@@ -28,8 +28,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gaurav Bhorkar</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gaurav Bhorkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+User model is already present.. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gaurav Bhorkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Complete the process of creating a new user by adding an entry into the database. Please refer to 'user model.txt' file in the project documents folder for details on implementation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -90,12 +148,15 @@
   <si>
     <t>Create a Templete for pages</t>
   </si>
+  <si>
+    <t>Sign Up process</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +202,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -549,12 +623,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1002,6 +1077,12 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
+      <c r="F5" s="5">
+        <v>42373</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="6" t="b">
         <f>IF(AND(I$3&gt;=$F5, I$3&lt;=$F5+$G5-1), "ACTUAL", IF(AND(I$3&gt;=$D5, I$3&lt;=$D5+$E5-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -1016,7 +1097,7 @@
       </c>
       <c r="L5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLANNED</v>
+        <v>ACTUAL</v>
       </c>
       <c r="M5" s="6" t="b">
         <f t="shared" si="0"/>
@@ -1215,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>42372</v>
@@ -1447,6 +1528,9 @@
       <c r="F7" s="5">
         <v>42372</v>
       </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
       <c r="I7" s="6" t="b">
         <f t="shared" ref="I7:X21" si="4">IF(AND(I$3&gt;=$F7, I$3&lt;=$F7+$G7-1), "ACTUAL", IF(AND(I$3&gt;=$D7, I$3&lt;=$D7+$E7-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -1457,11 +1541,11 @@
       </c>
       <c r="K7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLANNED</v>
+        <v>ACTUAL</v>
       </c>
       <c r="L7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLANNED</v>
+        <v>ACTUAL</v>
       </c>
       <c r="M7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2116,6 +2200,12 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F10" s="5">
+        <v>42373</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
       <c r="I10" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2130,11 +2220,11 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLANNED</v>
+        <v>ACTUAL</v>
       </c>
       <c r="M10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLANNED</v>
+        <v>ACTUAL</v>
       </c>
       <c r="N10" s="6" t="b">
         <f t="shared" si="0"/>
@@ -2332,10 +2422,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>42375</v>
+        <v>42374</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="6" t="b">
         <f t="shared" si="4"/>
@@ -2353,9 +2443,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="6" t="b">
+      <c r="M11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>PLANNED</v>
       </c>
       <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2543,6 +2633,21 @@
       </c>
     </row>
     <row r="12" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42374</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="I12" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2559,13 +2664,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="6" t="b">
+      <c r="M12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="b">
+        <v>PLANNED</v>
+      </c>
+      <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>PLANNED</v>
       </c>
       <c r="O12" s="6" t="b">
         <f t="shared" si="0"/>
@@ -33565,6 +33670,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Project Documents/Timeline.xlsx
+++ b/Project Documents/Timeline.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsd2015\game-store-wsd\Project Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9984"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +14,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$D$259</definedName>
     <definedName name="developers">Setup!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -94,8 +89,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,38 +537,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="22.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" style="14" customWidth="1"/>
     <col min="9" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="39" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="48" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="59" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="10.77734375" style="1"/>
+    <col min="40" max="48" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="59" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" ht="22.9" customHeight="1">
       <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
@@ -582,10 +577,10 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:59" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" ht="22.9" customHeight="1">
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:59" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" s="3" customFormat="1" ht="35.450000000000003" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -759,7 +754,7 @@
         <v>42420</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="33" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -986,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" ht="33" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1001,6 +996,12 @@
       </c>
       <c r="E5" s="2">
         <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42373</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
       </c>
       <c r="I5" s="6" t="b">
         <f>IF(AND(I$3&gt;=$F5, I$3&lt;=$F5+$G5-1), "ACTUAL", IF(AND(I$3&gt;=$D5, I$3&lt;=$D5+$E5-1), "PLANNED",  FALSE))</f>
@@ -1016,7 +1017,7 @@
       </c>
       <c r="L5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>PLANNED</v>
+        <v>ACTUAL</v>
       </c>
       <c r="M5" s="6" t="b">
         <f t="shared" si="0"/>
@@ -1207,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" ht="33" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" ht="33" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" ht="33" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" ht="33" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" ht="33" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" ht="33" customHeight="1">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" ht="33" customHeight="1">
       <c r="I12" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2748,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" ht="33" customHeight="1">
       <c r="I13" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2954,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" ht="33" customHeight="1">
       <c r="I14" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3160,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" ht="33" customHeight="1">
       <c r="I15" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3366,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" ht="33" customHeight="1">
       <c r="I16" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3572,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:59" ht="33" customHeight="1">
       <c r="I17" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3778,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:59" ht="33" customHeight="1">
       <c r="I18" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3984,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:59" ht="33" customHeight="1">
       <c r="I19" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4190,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:59" ht="33" customHeight="1">
       <c r="I20" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4396,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:59" ht="33" customHeight="1">
       <c r="I21" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4602,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:59" ht="33" customHeight="1">
       <c r="I22" s="6" t="b">
         <f t="shared" ref="I22:X37" si="9">IF(AND(I$3&gt;=$F22, I$3&lt;=$F22+$G22-1), "ACTUAL", IF(AND(I$3&gt;=$D22, I$3&lt;=$D22+$E22-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -4808,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:59" ht="33" customHeight="1">
       <c r="I23" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5014,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:59" ht="33" customHeight="1">
       <c r="I24" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5220,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:59" ht="33" customHeight="1">
       <c r="I25" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5426,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:59" ht="33" customHeight="1">
       <c r="I26" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5632,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:59" ht="33" customHeight="1">
       <c r="I27" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5838,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:59" ht="33" customHeight="1">
       <c r="I28" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6044,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:59" ht="33" customHeight="1">
       <c r="I29" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6250,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:59" ht="33" customHeight="1">
       <c r="I30" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6456,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:59" ht="33" customHeight="1">
       <c r="I31" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6662,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:59" ht="33" customHeight="1">
       <c r="I32" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6868,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:59" ht="33" customHeight="1">
       <c r="I33" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7074,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:59" ht="33" customHeight="1">
       <c r="I34" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7280,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:59" ht="33" customHeight="1">
       <c r="I35" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7486,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:59" ht="33" customHeight="1">
       <c r="I36" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7692,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:59" ht="33" customHeight="1">
       <c r="I37" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7898,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:59" ht="33" customHeight="1">
       <c r="I38" s="6" t="b">
         <f t="shared" ref="I38:X53" si="13">IF(AND(I$3&gt;=$F38, I$3&lt;=$F38+$G38-1), "ACTUAL", IF(AND(I$3&gt;=$D38, I$3&lt;=$D38+$E38-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -8104,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:59" ht="33" customHeight="1">
       <c r="I39" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -8310,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:59" ht="33" customHeight="1">
       <c r="I40" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -8516,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:59" ht="33" customHeight="1">
       <c r="I41" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -8722,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:59" ht="33" customHeight="1">
       <c r="I42" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -8928,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:59" ht="33" customHeight="1">
       <c r="I43" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -9134,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:59" ht="33" customHeight="1">
       <c r="I44" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -9340,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:59" ht="33" customHeight="1">
       <c r="I45" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -9546,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:59" ht="33" customHeight="1">
       <c r="I46" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -9752,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:59" ht="33" customHeight="1">
       <c r="I47" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -9958,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:59" ht="33" customHeight="1">
       <c r="I48" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -10164,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:59" ht="33" customHeight="1">
       <c r="I49" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -10370,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:59" ht="33" customHeight="1">
       <c r="I50" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -10576,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:59" ht="33" customHeight="1">
       <c r="I51" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -10782,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:59" ht="33" customHeight="1">
       <c r="I52" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -10988,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:59" ht="33" customHeight="1">
       <c r="I53" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -11194,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:59" ht="33" customHeight="1">
       <c r="I54" s="6" t="b">
         <f t="shared" ref="I54:X69" si="18">IF(AND(I$3&gt;=$F54, I$3&lt;=$F54+$G54-1), "ACTUAL", IF(AND(I$3&gt;=$D54, I$3&lt;=$D54+$E54-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -11400,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:59" ht="33" customHeight="1">
       <c r="I55" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11606,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:59" ht="33" customHeight="1">
       <c r="I56" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11812,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:59" ht="33" customHeight="1">
       <c r="I57" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12018,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:59" ht="33" customHeight="1">
       <c r="I58" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12224,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:59" ht="33" customHeight="1">
       <c r="I59" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12430,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:59" ht="33" customHeight="1">
       <c r="I60" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12636,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:59" ht="33" customHeight="1">
       <c r="I61" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12842,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:59" ht="33" customHeight="1">
       <c r="I62" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13048,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:59" ht="33" customHeight="1">
       <c r="I63" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13254,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:59" ht="33" customHeight="1">
       <c r="I64" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13460,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:59" ht="33" customHeight="1">
       <c r="I65" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13666,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:59" ht="33" customHeight="1">
       <c r="I66" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13872,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:59" ht="33" customHeight="1">
       <c r="I67" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -14078,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:59" ht="33" customHeight="1">
       <c r="I68" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -14284,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:59" ht="33" customHeight="1">
       <c r="I69" s="6" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -14490,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:59" ht="33" customHeight="1">
       <c r="I70" s="6" t="b">
         <f t="shared" ref="I70:X85" si="22">IF(AND(I$3&gt;=$F70, I$3&lt;=$F70+$G70-1), "ACTUAL", IF(AND(I$3&gt;=$D70, I$3&lt;=$D70+$E70-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -14696,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:59" ht="33" customHeight="1">
       <c r="I71" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -14902,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:59" ht="33" customHeight="1">
       <c r="I72" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -15108,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:59" ht="33" customHeight="1">
       <c r="I73" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -15314,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:59" ht="33" customHeight="1">
       <c r="I74" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -15520,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:59" ht="33" customHeight="1">
       <c r="I75" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -15726,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:59" ht="33" customHeight="1">
       <c r="I76" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -15932,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:59" ht="33" customHeight="1">
       <c r="I77" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -16138,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:59" ht="33" customHeight="1">
       <c r="I78" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -16344,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:59" ht="33" customHeight="1">
       <c r="I79" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -16550,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:59" ht="33" customHeight="1">
       <c r="I80" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -16756,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:59" ht="33" customHeight="1">
       <c r="I81" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -16962,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:59" ht="33" customHeight="1">
       <c r="I82" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -17168,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:59" ht="33" customHeight="1">
       <c r="I83" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -17374,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:59" ht="33" customHeight="1">
       <c r="I84" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -17580,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:59" ht="33" customHeight="1">
       <c r="I85" s="6" t="b">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -17786,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:59" ht="33" customHeight="1">
       <c r="I86" s="6" t="b">
         <f t="shared" ref="I86:X101" si="28">IF(AND(I$3&gt;=$F86, I$3&lt;=$F86+$G86-1), "ACTUAL", IF(AND(I$3&gt;=$D86, I$3&lt;=$D86+$E86-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -17992,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:59" ht="33" customHeight="1">
       <c r="I87" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -18198,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:59" ht="33" customHeight="1">
       <c r="I88" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -18404,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:59" ht="33" customHeight="1">
       <c r="I89" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -18610,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:59" ht="33" customHeight="1">
       <c r="I90" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -18816,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:59" ht="33" customHeight="1">
       <c r="I91" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -19022,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:59" ht="33" customHeight="1">
       <c r="I92" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -19228,7 +19229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:59" ht="33" customHeight="1">
       <c r="I93" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -19434,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:59" ht="33" customHeight="1">
       <c r="I94" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -19640,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:59" ht="33" customHeight="1">
       <c r="I95" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -19846,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:59" ht="33" customHeight="1">
       <c r="I96" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -20052,7 +20053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:59" ht="33" customHeight="1">
       <c r="I97" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -20258,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:59" ht="33" customHeight="1">
       <c r="I98" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -20464,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:59" ht="33" customHeight="1">
       <c r="I99" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -20670,7 +20671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:59" ht="33" customHeight="1">
       <c r="I100" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -20876,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:59" ht="33" customHeight="1">
       <c r="I101" s="6" t="b">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21082,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:59" ht="33" customHeight="1">
       <c r="I102" s="6" t="b">
         <f t="shared" ref="I102:X117" si="32">IF(AND(I$3&gt;=$F102, I$3&lt;=$F102+$G102-1), "ACTUAL", IF(AND(I$3&gt;=$D102, I$3&lt;=$D102+$E102-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -21288,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:59" ht="33" customHeight="1">
       <c r="I103" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -21494,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:59" ht="33" customHeight="1">
       <c r="I104" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -21700,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:59" ht="33" customHeight="1">
       <c r="I105" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -21906,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:59" ht="33" customHeight="1">
       <c r="I106" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -22112,7 +22113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:59" ht="33" customHeight="1">
       <c r="I107" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -22318,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:59" ht="33" customHeight="1">
       <c r="I108" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -22524,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:59" ht="33" customHeight="1">
       <c r="I109" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -22730,7 +22731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:59" ht="33" customHeight="1">
       <c r="I110" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -22936,7 +22937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:59" ht="33" customHeight="1">
       <c r="I111" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -23142,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:59" ht="33" customHeight="1">
       <c r="I112" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -23348,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:59" ht="33" customHeight="1">
       <c r="I113" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -23554,7 +23555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:59" ht="33" customHeight="1">
       <c r="I114" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -23760,7 +23761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:59" ht="33" customHeight="1">
       <c r="I115" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -23966,7 +23967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:59" ht="33" customHeight="1">
       <c r="I116" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -24172,7 +24173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:59" ht="33" customHeight="1">
       <c r="I117" s="6" t="b">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -24378,7 +24379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:59" ht="33" customHeight="1">
       <c r="I118" s="6" t="b">
         <f t="shared" ref="I118:X133" si="38">IF(AND(I$3&gt;=$F118, I$3&lt;=$F118+$G118-1), "ACTUAL", IF(AND(I$3&gt;=$D118, I$3&lt;=$D118+$E118-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -24584,7 +24585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:59" ht="33" customHeight="1">
       <c r="I119" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -24790,7 +24791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:59" ht="33" customHeight="1">
       <c r="I120" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -24996,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:59" ht="33" customHeight="1">
       <c r="I121" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -25202,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:59" ht="33" customHeight="1">
       <c r="I122" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -25408,7 +25409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:59" ht="33" customHeight="1">
       <c r="I123" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -25614,7 +25615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:59" ht="33" customHeight="1">
       <c r="I124" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -25820,7 +25821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:59" ht="33" customHeight="1">
       <c r="I125" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -26026,7 +26027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:59" ht="33" customHeight="1">
       <c r="I126" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -26232,7 +26233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:59" ht="33" customHeight="1">
       <c r="I127" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -26438,7 +26439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:59" ht="33" customHeight="1">
       <c r="I128" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -26644,7 +26645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:59" ht="33" customHeight="1">
       <c r="I129" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -26850,7 +26851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:59" ht="33" customHeight="1">
       <c r="I130" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -27056,7 +27057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:59" ht="33" customHeight="1">
       <c r="I131" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -27262,7 +27263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:59" ht="33" customHeight="1">
       <c r="I132" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -27468,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:59" ht="33" customHeight="1">
       <c r="I133" s="6" t="b">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -27674,7 +27675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:59" ht="33" customHeight="1">
       <c r="I134" s="6" t="b">
         <f t="shared" ref="I134:X149" si="42">IF(AND(I$3&gt;=$F134, I$3&lt;=$F134+$G134-1), "ACTUAL", IF(AND(I$3&gt;=$D134, I$3&lt;=$D134+$E134-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -27880,7 +27881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:59" ht="33" customHeight="1">
       <c r="I135" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -28086,7 +28087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:59" ht="33" customHeight="1">
       <c r="I136" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -28292,7 +28293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:59" ht="33" customHeight="1">
       <c r="I137" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -28498,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:59" ht="33" customHeight="1">
       <c r="I138" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -28704,7 +28705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:59" ht="33" customHeight="1">
       <c r="I139" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -28910,7 +28911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:59" ht="33" customHeight="1">
       <c r="I140" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -29116,7 +29117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:59" ht="33" customHeight="1">
       <c r="I141" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -29322,7 +29323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:59" ht="33" customHeight="1">
       <c r="I142" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -29528,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:59" ht="33" customHeight="1">
       <c r="I143" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -29734,7 +29735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:59" ht="33" customHeight="1">
       <c r="I144" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -29940,7 +29941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:59" ht="33" customHeight="1">
       <c r="I145" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -30146,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:59" ht="33" customHeight="1">
       <c r="I146" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -30352,7 +30353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:59" ht="33" customHeight="1">
       <c r="I147" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -30558,7 +30559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:59" ht="33" customHeight="1">
       <c r="I148" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -30764,7 +30765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:59" ht="33" customHeight="1">
       <c r="I149" s="6" t="b">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -30970,7 +30971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:59" ht="33" customHeight="1">
       <c r="I150" s="6" t="b">
         <f t="shared" ref="I150:X161" si="48">IF(AND(I$3&gt;=$F150, I$3&lt;=$F150+$G150-1), "ACTUAL", IF(AND(I$3&gt;=$D150, I$3&lt;=$D150+$E150-1), "PLANNED",  FALSE))</f>
         <v>0</v>
@@ -31176,7 +31177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:59" ht="33" customHeight="1">
       <c r="I151" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -31382,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:59" ht="33" customHeight="1">
       <c r="I152" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -31588,7 +31589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:59" ht="33" customHeight="1">
       <c r="I153" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -31794,7 +31795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:59" ht="33" customHeight="1">
       <c r="I154" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -32000,7 +32001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:59" ht="33" customHeight="1">
       <c r="I155" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -32206,7 +32207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:59" ht="33" customHeight="1">
       <c r="I156" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -32412,7 +32413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:59" ht="33" customHeight="1">
       <c r="I157" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -32618,7 +32619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:59" ht="33" customHeight="1">
       <c r="I158" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -32824,7 +32825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:59" ht="33" customHeight="1">
       <c r="I159" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33030,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:59" ht="33" customHeight="1">
       <c r="I160" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33236,7 +33237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:59" ht="33" customHeight="1">
       <c r="I161" s="6" t="b">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33442,104 +33443,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="9:59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="9:59" ht="33" customHeight="1"/>
+    <row r="163" spans="9:59" ht="33" customHeight="1"/>
+    <row r="164" spans="9:59" ht="33" customHeight="1"/>
+    <row r="165" spans="9:59" ht="33" customHeight="1"/>
+    <row r="166" spans="9:59" ht="33" customHeight="1"/>
+    <row r="167" spans="9:59" ht="33" customHeight="1"/>
+    <row r="168" spans="9:59" ht="33" customHeight="1"/>
+    <row r="169" spans="9:59" ht="33" customHeight="1"/>
+    <row r="170" spans="9:59" ht="33" customHeight="1"/>
+    <row r="171" spans="9:59" ht="33" customHeight="1"/>
+    <row r="172" spans="9:59" ht="33" customHeight="1"/>
+    <row r="173" spans="9:59" ht="33" customHeight="1"/>
+    <row r="174" spans="9:59" ht="33" customHeight="1"/>
+    <row r="175" spans="9:59" ht="33" customHeight="1"/>
+    <row r="176" spans="9:59" ht="33" customHeight="1"/>
+    <row r="177" ht="33" customHeight="1"/>
+    <row r="178" ht="33" customHeight="1"/>
+    <row r="179" ht="33" customHeight="1"/>
+    <row r="180" ht="33" customHeight="1"/>
+    <row r="181" ht="33" customHeight="1"/>
+    <row r="182" ht="33" customHeight="1"/>
+    <row r="183" ht="33" customHeight="1"/>
+    <row r="184" ht="33" customHeight="1"/>
+    <row r="185" ht="33" customHeight="1"/>
+    <row r="186" ht="33" customHeight="1"/>
+    <row r="187" ht="33" customHeight="1"/>
+    <row r="188" ht="33" customHeight="1"/>
+    <row r="189" ht="33" customHeight="1"/>
+    <row r="190" ht="33" customHeight="1"/>
+    <row r="191" ht="33" customHeight="1"/>
+    <row r="192" ht="33" customHeight="1"/>
+    <row r="193" ht="33" customHeight="1"/>
+    <row r="194" ht="33" customHeight="1"/>
+    <row r="195" ht="33" customHeight="1"/>
+    <row r="196" ht="33" customHeight="1"/>
+    <row r="197" ht="33" customHeight="1"/>
+    <row r="198" ht="33" customHeight="1"/>
+    <row r="199" ht="33" customHeight="1"/>
+    <row r="200" ht="33" customHeight="1"/>
+    <row r="201" ht="33" customHeight="1"/>
+    <row r="202" ht="33" customHeight="1"/>
+    <row r="203" ht="33" customHeight="1"/>
+    <row r="204" ht="33" customHeight="1"/>
+    <row r="205" ht="33" customHeight="1"/>
+    <row r="206" ht="33" customHeight="1"/>
+    <row r="207" ht="33" customHeight="1"/>
+    <row r="208" ht="33" customHeight="1"/>
+    <row r="209" ht="33" customHeight="1"/>
+    <row r="210" ht="33" customHeight="1"/>
+    <row r="211" ht="33" customHeight="1"/>
+    <row r="212" ht="33" customHeight="1"/>
+    <row r="213" ht="33" customHeight="1"/>
+    <row r="214" ht="33" customHeight="1"/>
+    <row r="215" ht="33" customHeight="1"/>
+    <row r="216" ht="33" customHeight="1"/>
+    <row r="217" ht="33" customHeight="1"/>
+    <row r="218" ht="33" customHeight="1"/>
+    <row r="219" ht="33" customHeight="1"/>
+    <row r="220" ht="33" customHeight="1"/>
+    <row r="221" ht="33" customHeight="1"/>
+    <row r="222" ht="33" customHeight="1"/>
+    <row r="223" ht="33" customHeight="1"/>
+    <row r="224" ht="33" customHeight="1"/>
+    <row r="225" ht="33" customHeight="1"/>
+    <row r="226" ht="33" customHeight="1"/>
+    <row r="227" ht="33" customHeight="1"/>
+    <row r="228" ht="33" customHeight="1"/>
+    <row r="229" ht="33" customHeight="1"/>
+    <row r="230" ht="33" customHeight="1"/>
+    <row r="231" ht="33" customHeight="1"/>
+    <row r="232" ht="33" customHeight="1"/>
+    <row r="233" ht="33" customHeight="1"/>
+    <row r="234" ht="33" customHeight="1"/>
+    <row r="235" ht="33" customHeight="1"/>
+    <row r="236" ht="33" customHeight="1"/>
+    <row r="237" ht="33" customHeight="1"/>
+    <row r="238" ht="33" customHeight="1"/>
+    <row r="239" ht="33" customHeight="1"/>
+    <row r="240" ht="33" customHeight="1"/>
+    <row r="241" ht="33" customHeight="1"/>
+    <row r="242" ht="33" customHeight="1"/>
+    <row r="243" ht="33" customHeight="1"/>
+    <row r="244" ht="33" customHeight="1"/>
+    <row r="245" ht="33" customHeight="1"/>
+    <row r="246" ht="33" customHeight="1"/>
+    <row r="247" ht="33" customHeight="1"/>
+    <row r="248" ht="33" customHeight="1"/>
+    <row r="249" ht="33" customHeight="1"/>
+    <row r="250" ht="33" customHeight="1"/>
+    <row r="251" ht="33" customHeight="1"/>
+    <row r="252" ht="33" customHeight="1"/>
+    <row r="253" ht="33" customHeight="1"/>
+    <row r="254" ht="33" customHeight="1"/>
+    <row r="255" ht="33" customHeight="1"/>
+    <row r="256" ht="33" customHeight="1"/>
+    <row r="257" ht="33" customHeight="1"/>
+    <row r="258" ht="33" customHeight="1"/>
+    <row r="259" ht="33" customHeight="1"/>
   </sheetData>
   <autoFilter ref="C3:D259"/>
   <conditionalFormatting sqref="I4:BG161">
@@ -33569,34 +33570,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>10</v>
       </c>

--- a/Project Documents/Timeline.xlsx
+++ b/Project Documents/Timeline.xlsx
@@ -82,12 +82,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gaurav Bhorkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Just the view, which should include the game titile and the link to it. Refer the model of Game for more information.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gaurav Bhorkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The game sends a SAVE message. The game state should be sent as a AJAX post request to an ajax/save/. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -150,6 +198,12 @@
   </si>
   <si>
     <t>Sign Up process</t>
+  </si>
+  <si>
+    <t>Developer add new game view</t>
+  </si>
+  <si>
+    <t>SAVE Game handler</t>
   </si>
 </sst>
 </file>
@@ -627,9 +681,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1296,13 +1350,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
         <v>42372</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42375</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="b">
         <f>IF(AND(I$3&gt;=$F6, I$3&lt;=$F6+$G6-1), "ACTUAL", IF(AND(I$3&gt;=$D6, I$3&lt;=$D6+$E6-1), "PLANNED",  FALSE))</f>
@@ -1324,9 +1384,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="b">
+      <c r="N6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>ACTUAL</v>
       </c>
       <c r="O6" s="6" t="b">
         <f t="shared" si="0"/>
@@ -2427,6 +2487,9 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
+      <c r="F11" s="5">
+        <v>42374</v>
+      </c>
       <c r="I11" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2648,6 +2711,9 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
+      <c r="F12" s="5">
+        <v>42374</v>
+      </c>
       <c r="I12" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2854,6 +2920,21 @@
       </c>
     </row>
     <row r="13" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>42377</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="I13" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2882,13 +2963,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="6" t="b">
+      <c r="P13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6" t="b">
+        <v>PLANNED</v>
+      </c>
+      <c r="Q13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>PLANNED</v>
       </c>
       <c r="R13" s="6" t="b">
         <f t="shared" si="0"/>
@@ -3060,6 +3141,21 @@
       </c>
     </row>
     <row r="14" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>42377</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
       <c r="I14" s="6" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3088,13 +3184,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="6" t="b">
+      <c r="P14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6" t="b">
+        <v>PLANNED</v>
+      </c>
+      <c r="Q14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>PLANNED</v>
       </c>
       <c r="R14" s="6" t="b">
         <f t="shared" si="0"/>
